--- a/currentbuild/StructureDefinition-no-basis-patient.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-patient.xlsx
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -929,7 +929,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1058,7 +1058,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -1127,7 +1127,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1247,7 +1247,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1318,7 +1318,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1685,7 +1685,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1700,7 +1700,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.35546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
